--- a/fixed_nominal_to_numeric_job_dataset.xlsx
+++ b/fixed_nominal_to_numeric_job_dataset.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -780,7 +780,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -862,7 +862,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>use car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -3568,7 +3568,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -5782,7 +5782,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -7463,7 +7463,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -7832,7 +7832,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>use car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -8611,7 +8611,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -8898,7 +8898,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -8980,7 +8980,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -9062,7 +9062,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -9472,7 +9472,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -10415,7 +10415,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -10825,7 +10825,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -11071,7 +11071,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -11317,7 +11317,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -11645,7 +11645,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -12178,7 +12178,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -12219,7 +12219,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -12465,7 +12465,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -12506,7 +12506,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -12629,7 +12629,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -12670,7 +12670,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -12875,7 +12875,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -12916,7 +12916,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -12957,7 +12957,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -13162,7 +13162,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -13326,7 +13326,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -13367,7 +13367,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -13613,7 +13613,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -13695,7 +13695,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -13777,7 +13777,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -13818,7 +13818,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -13900,7 +13900,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -14105,7 +14105,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -14146,7 +14146,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -14310,7 +14310,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -14597,7 +14597,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D346" t="n">
@@ -14843,7 +14843,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -14925,7 +14925,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -15048,7 +15048,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -15335,7 +15335,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -15499,7 +15499,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -15786,7 +15786,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -15827,7 +15827,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D376" t="n">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -16032,7 +16032,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -16114,7 +16114,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -16155,7 +16155,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -16196,7 +16196,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -16483,7 +16483,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -16811,7 +16811,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -17057,7 +17057,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D406" t="n">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -17262,7 +17262,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D411" t="n">
@@ -17344,7 +17344,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -17426,7 +17426,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -17467,7 +17467,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D416" t="n">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -17549,7 +17549,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D418" t="n">
@@ -17631,7 +17631,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -17672,7 +17672,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D421" t="n">
@@ -17713,7 +17713,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D422" t="n">
@@ -17754,7 +17754,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D423" t="n">
@@ -17795,7 +17795,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D427" t="n">
@@ -18410,7 +18410,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D439" t="n">
@@ -18533,7 +18533,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D442" t="n">
@@ -18779,7 +18779,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D448" t="n">
@@ -18943,7 +18943,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D452" t="n">
@@ -19066,7 +19066,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D455" t="n">
@@ -19107,7 +19107,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D456" t="n">
@@ -19148,7 +19148,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D457" t="n">
@@ -19189,7 +19189,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D458" t="n">
@@ -19230,7 +19230,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D463" t="n">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D467" t="n">
@@ -19722,7 +19722,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D471" t="n">
@@ -19845,7 +19845,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D474" t="n">
@@ -20009,7 +20009,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D478" t="n">
@@ -20214,7 +20214,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D483" t="n">
@@ -20337,7 +20337,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D486" t="n">
@@ -20378,7 +20378,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D487" t="n">
@@ -20460,7 +20460,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D489" t="n">
@@ -20501,7 +20501,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -20542,7 +20542,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D491" t="n">
@@ -20747,7 +20747,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D496" t="n">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D501" t="n">
@@ -20993,7 +20993,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D502" t="n">
@@ -21034,7 +21034,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -21157,7 +21157,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D506" t="n">
@@ -21198,7 +21198,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D507" t="n">
@@ -21239,7 +21239,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D508" t="n">
@@ -21280,7 +21280,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D509" t="n">
@@ -21362,7 +21362,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D511" t="n">
@@ -21403,7 +21403,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D512" t="n">
@@ -21444,7 +21444,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -21567,7 +21567,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D516" t="n">
@@ -21608,7 +21608,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D517" t="n">
@@ -21649,7 +21649,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D518" t="n">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D520" t="n">
@@ -21936,7 +21936,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D525" t="n">
@@ -22018,7 +22018,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D527" t="n">
@@ -22182,7 +22182,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D531" t="n">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D533" t="n">
@@ -22305,7 +22305,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D534" t="n">
@@ -22469,7 +22469,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D538" t="n">
@@ -22551,7 +22551,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D540" t="n">
@@ -22674,7 +22674,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D543" t="n">
@@ -22797,7 +22797,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D546" t="n">
@@ -22838,7 +22838,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D547" t="n">
@@ -22879,7 +22879,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D548" t="n">
@@ -23002,7 +23002,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D551" t="n">
@@ -23166,7 +23166,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D555" t="n">
@@ -23289,7 +23289,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D558" t="n">
@@ -23330,7 +23330,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D559" t="n">
@@ -23453,7 +23453,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D562" t="n">
@@ -23576,7 +23576,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D565" t="n">
@@ -23699,7 +23699,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D568" t="n">
@@ -23945,7 +23945,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D574" t="n">
@@ -24191,7 +24191,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D580" t="n">
@@ -24273,7 +24273,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D582" t="n">
@@ -24314,7 +24314,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D583" t="n">
@@ -24437,7 +24437,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D586" t="n">
@@ -24519,7 +24519,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D588" t="n">
@@ -24601,7 +24601,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D590" t="n">
@@ -24724,7 +24724,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D593" t="n">
@@ -24806,7 +24806,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D595" t="n">
@@ -24888,7 +24888,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D597" t="n">
@@ -24929,7 +24929,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D598" t="n">
@@ -25011,7 +25011,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D600" t="n">
@@ -25462,7 +25462,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D611" t="n">
@@ -25503,7 +25503,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D612" t="n">
@@ -25544,7 +25544,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D613" t="n">
@@ -25626,7 +25626,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D615" t="n">
@@ -25790,7 +25790,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D619" t="n">
@@ -25872,7 +25872,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D621" t="n">
@@ -25954,7 +25954,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D623" t="n">
@@ -26200,7 +26200,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D629" t="n">
@@ -26487,7 +26487,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D636" t="n">
@@ -27020,7 +27020,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D649" t="n">
@@ -27061,7 +27061,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D650" t="n">
@@ -27225,7 +27225,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D654" t="n">
@@ -27266,7 +27266,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D655" t="n">
@@ -27307,7 +27307,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D656" t="n">
@@ -27348,7 +27348,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D657" t="n">
@@ -27389,7 +27389,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D658" t="n">
@@ -27594,7 +27594,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D663" t="n">
@@ -27881,7 +27881,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D670" t="n">
@@ -28045,7 +28045,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D674" t="n">
@@ -28086,7 +28086,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D675" t="n">
@@ -28578,7 +28578,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D687" t="n">
@@ -28660,7 +28660,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D689" t="n">
@@ -28742,7 +28742,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D691" t="n">
@@ -28906,7 +28906,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D695" t="n">
@@ -28988,7 +28988,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D697" t="n">
@@ -29070,7 +29070,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D699" t="n">
@@ -29234,7 +29234,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D703" t="n">
@@ -29398,7 +29398,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D707" t="n">
@@ -29439,7 +29439,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D708" t="n">
@@ -29685,7 +29685,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D714" t="n">
@@ -29767,7 +29767,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D716" t="n">
@@ -29808,7 +29808,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D717" t="n">
@@ -29972,7 +29972,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D721" t="n">
@@ -30095,7 +30095,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D724" t="n">
@@ -30177,7 +30177,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D726" t="n">
@@ -30218,7 +30218,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D727" t="n">
@@ -30546,7 +30546,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D735" t="n">
@@ -30587,7 +30587,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D736" t="n">
@@ -30628,7 +30628,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D737" t="n">
@@ -30669,7 +30669,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D738" t="n">
@@ -30710,7 +30710,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D739" t="n">
@@ -30751,7 +30751,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D740" t="n">
@@ -30833,7 +30833,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D742" t="n">
@@ -31079,7 +31079,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D748" t="n">
@@ -31120,7 +31120,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D749" t="n">
@@ -31161,7 +31161,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>use car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D750" t="n">
@@ -31202,7 +31202,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D751" t="n">
@@ -31284,7 +31284,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D753" t="n">
@@ -31448,7 +31448,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D757" t="n">
@@ -31489,7 +31489,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D758" t="n">
@@ -31571,7 +31571,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D760" t="n">
@@ -31612,7 +31612,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D761" t="n">
@@ -31653,7 +31653,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D762" t="n">
@@ -31776,7 +31776,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D765" t="n">
@@ -31817,7 +31817,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D766" t="n">
@@ -31940,7 +31940,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D769" t="n">
@@ -32063,7 +32063,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D772" t="n">
@@ -32145,7 +32145,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D774" t="n">
@@ -32227,7 +32227,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D776" t="n">
@@ -32268,7 +32268,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D777" t="n">
@@ -32309,7 +32309,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D778" t="n">
@@ -32391,7 +32391,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D780" t="n">
@@ -32514,7 +32514,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D783" t="n">
@@ -32596,7 +32596,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D785" t="n">
@@ -32637,7 +32637,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D786" t="n">
@@ -32760,7 +32760,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D789" t="n">
@@ -32924,7 +32924,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D793" t="n">
@@ -33129,7 +33129,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D798" t="n">
@@ -33211,7 +33211,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D800" t="n">
@@ -33252,7 +33252,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D801" t="n">
@@ -33457,7 +33457,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D806" t="n">
@@ -33498,7 +33498,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D807" t="n">
@@ -33621,7 +33621,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D810" t="n">
@@ -33662,7 +33662,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D811" t="n">
@@ -33785,7 +33785,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D814" t="n">
@@ -33826,7 +33826,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D815" t="n">
@@ -33867,7 +33867,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D816" t="n">
@@ -33908,7 +33908,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D817" t="n">
@@ -33949,7 +33949,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D818" t="n">
@@ -34113,7 +34113,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D822" t="n">
@@ -34236,7 +34236,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D825" t="n">
@@ -34318,7 +34318,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D827" t="n">
@@ -34359,7 +34359,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D828" t="n">
@@ -34441,7 +34441,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D830" t="n">
@@ -34564,7 +34564,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D833" t="n">
@@ -34728,7 +34728,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D837" t="n">
@@ -34851,7 +34851,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D840" t="n">
@@ -34974,7 +34974,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D843" t="n">
@@ -35179,7 +35179,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D848" t="n">
@@ -35220,7 +35220,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D849" t="n">
@@ -35343,7 +35343,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D852" t="n">
@@ -35384,7 +35384,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D853" t="n">
@@ -35466,7 +35466,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D855" t="n">
@@ -35507,7 +35507,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D856" t="n">
@@ -35548,7 +35548,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D857" t="n">
@@ -35671,7 +35671,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D860" t="n">
@@ -35712,7 +35712,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D861" t="n">
@@ -35753,7 +35753,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D862" t="n">
@@ -36204,7 +36204,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D873" t="n">
@@ -36286,7 +36286,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>'domestic appliance'</t>
+          <t>domestic appliance</t>
         </is>
       </c>
       <c r="D875" t="n">
@@ -36368,7 +36368,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D877" t="n">
@@ -36491,7 +36491,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D880" t="n">
@@ -36573,7 +36573,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D882" t="n">
@@ -36614,7 +36614,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D883" t="n">
@@ -36655,7 +36655,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D884" t="n">
@@ -36901,7 +36901,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D890" t="n">
@@ -36942,7 +36942,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D891" t="n">
@@ -37065,7 +37065,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D894" t="n">
@@ -37106,7 +37106,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D895" t="n">
@@ -37188,7 +37188,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D897" t="n">
@@ -37393,7 +37393,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D902" t="n">
@@ -37434,7 +37434,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D903" t="n">
@@ -37475,7 +37475,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D904" t="n">
@@ -37639,7 +37639,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D908" t="n">
@@ -37721,7 +37721,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D910" t="n">
@@ -37762,7 +37762,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D911" t="n">
@@ -38049,7 +38049,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D918" t="n">
@@ -38090,7 +38090,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D919" t="n">
@@ -38336,7 +38336,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D925" t="n">
@@ -38418,7 +38418,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D927" t="n">
@@ -38500,7 +38500,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D929" t="n">
@@ -38582,7 +38582,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D931" t="n">
@@ -38705,7 +38705,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D934" t="n">
@@ -38992,7 +38992,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D941" t="n">
@@ -39033,7 +39033,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D942" t="n">
@@ -39074,7 +39074,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D943" t="n">
@@ -39156,7 +39156,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D945" t="n">
@@ -39238,7 +39238,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D947" t="n">
@@ -39320,7 +39320,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D949" t="n">
@@ -39525,7 +39525,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D954" t="n">
@@ -39607,7 +39607,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D956" t="n">
@@ -39771,7 +39771,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D960" t="n">
@@ -39894,7 +39894,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D963" t="n">
@@ -39935,7 +39935,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D964" t="n">
@@ -40222,7 +40222,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D971" t="n">
@@ -40304,7 +40304,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D973" t="n">
@@ -40345,7 +40345,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D974" t="n">
@@ -40591,7 +40591,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D980" t="n">
@@ -40632,7 +40632,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D981" t="n">
@@ -40755,7 +40755,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D984" t="n">
@@ -40796,7 +40796,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D985" t="n">
@@ -41001,7 +41001,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D990" t="n">
@@ -41247,7 +41247,7 @@
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>'new car'</t>
+          <t>new car</t>
         </is>
       </c>
       <c r="D996" t="n">
@@ -41329,7 +41329,7 @@
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D998" t="n">
@@ -41452,7 +41452,7 @@
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>'used car'</t>
+          <t>used car</t>
         </is>
       </c>
       <c r="D1001" t="n">
